--- a/calculoIII/2025-2/2025-2-calculo3-lista-notas.xlsx
+++ b/calculoIII/2025-2/2025-2-calculo3-lista-notas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t xml:space="preserve">CPF</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">NVA1</t>
   </si>
   <si>
-    <t xml:space="preserve">PP2</t>
+    <t xml:space="preserve">NVA2</t>
   </si>
   <si>
     <t xml:space="preserve">PP3</t>
@@ -401,7 +401,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -463,18 +463,20 @@
       <c r="B2" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="n">
+        <v>5.2</v>
+      </c>
       <c r="E2" s="3" t="n">
         <f aca="false">IF(B2="ausente",0,B2)*0.2+IF(C2="ausente",0,C2)*0.3+IF(D2="ausente",0,D2)*0.5</f>
-        <v>0.5</v>
+        <v>2.06</v>
       </c>
       <c r="F2" s="3" t="n">
         <f aca="false">IF(B2="ausente",0,B2)*0.2+IF(C2="ausente",0,C2)*0.5+IF(D2="ausente",0,D2)*0.3</f>
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="G2" s="3" t="n">
         <f aca="false">MAX(E2:F2)</f>
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H2" s="4" t="str">
         <f aca="false">IF(G2&lt;4,"REP.",IF(G2&lt;5.9,"VS","APR."))</f>
@@ -482,11 +484,11 @@
       </c>
       <c r="J2" s="3" t="n">
         <f aca="false">IF(OR(G2&lt;4,G2&gt;5.9),G2,IF(I2&gt;6,6,(I2+G2)/2))</f>
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="L2" s="1" t="n">
         <f aca="false">ROUND((LARGE(M2:O2,1)+LARGE(M2:O2,2))/2,1)</f>
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="M2" s="3" t="n">
         <f aca="false">IF(B2="ausente",0,B2)</f>
@@ -494,7 +496,7 @@
       </c>
       <c r="N2" s="3" t="n">
         <f aca="false">IF(C2="ausente",0,C2)</f>
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O2" s="3" t="n">
         <f aca="false">IF(D2="ausente",0,D2)</f>
@@ -508,19 +510,21 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="n">
+        <v>0.7</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="n">
         <f aca="false">IF(B3="ausente",0,B3)*0.2+IF(C3="ausente",0,C3)*0.3+IF(D3="ausente",0,D3)*0.5</f>
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F3" s="3" t="n">
         <f aca="false">IF(B3="ausente",0,B3)*0.2+IF(C3="ausente",0,C3)*0.5+IF(D3="ausente",0,D3)*0.3</f>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G3" s="3" t="n">
         <f aca="false">MAX(E3:F3)</f>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="H3" s="4" t="str">
         <f aca="false">IF(G3&lt;4,"REP.",IF(G3&lt;5.9,"VS","APR."))</f>
@@ -528,11 +532,11 @@
       </c>
       <c r="J3" s="3" t="n">
         <f aca="false">IF(OR(G3&lt;4,G3&gt;5.9),G3,IF(I3&gt;6,6,(I3+G3)/2))</f>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L3" s="1" t="n">
         <f aca="false">ROUND((LARGE(M3:O3,1)+LARGE(M3:O3,2))/2,1)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M3" s="3" t="n">
         <f aca="false">IF(B3="ausente",0,B3)</f>
@@ -540,7 +544,7 @@
       </c>
       <c r="N3" s="3" t="n">
         <f aca="false">IF(C3="ausente",0,C3)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O3" s="3" t="n">
         <f aca="false">IF(D3="ausente",0,D3)</f>
@@ -554,7 +558,9 @@
       <c r="B4" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="n">
         <f aca="false">IF(B4="ausente",0,B4)*0.2+IF(C4="ausente",0,C4)*0.3+IF(D4="ausente",0,D4)*0.5</f>
@@ -600,31 +606,33 @@
       <c r="B5" s="3" t="n">
         <v>6.7</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="n">
+        <v>8.2</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="n">
         <f aca="false">IF(B5="ausente",0,B5)*0.2+IF(C5="ausente",0,C5)*0.3+IF(D5="ausente",0,D5)*0.5</f>
-        <v>1.34</v>
+        <v>3.8</v>
       </c>
       <c r="F5" s="3" t="n">
         <f aca="false">IF(B5="ausente",0,B5)*0.2+IF(C5="ausente",0,C5)*0.5+IF(D5="ausente",0,D5)*0.3</f>
-        <v>1.34</v>
+        <v>5.44</v>
       </c>
       <c r="G5" s="3" t="n">
         <f aca="false">MAX(E5:F5)</f>
-        <v>1.34</v>
+        <v>5.44</v>
       </c>
       <c r="H5" s="4" t="str">
         <f aca="false">IF(G5&lt;4,"REP.",IF(G5&lt;5.9,"VS","APR."))</f>
-        <v>REP.</v>
+        <v>VS</v>
       </c>
       <c r="J5" s="3" t="n">
         <f aca="false">IF(OR(G5&lt;4,G5&gt;5.9),G5,IF(I5&gt;6,6,(I5+G5)/2))</f>
-        <v>1.34</v>
+        <v>2.72</v>
       </c>
       <c r="L5" s="1" t="n">
         <f aca="false">ROUND((LARGE(M5:O5,1)+LARGE(M5:O5,2))/2,1)</f>
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M5" s="3" t="n">
         <f aca="false">IF(B5="ausente",0,B5)</f>
@@ -632,7 +640,7 @@
       </c>
       <c r="N5" s="3" t="n">
         <f aca="false">IF(C5="ausente",0,C5)</f>
-        <v>0</v>
+        <v>8.2</v>
       </c>
       <c r="O5" s="3" t="n">
         <f aca="false">IF(D5="ausente",0,D5)</f>
@@ -646,19 +654,21 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="n">
+        <v>7</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="n">
         <f aca="false">IF(B6="ausente",0,B6)*0.2+IF(C6="ausente",0,C6)*0.3+IF(D6="ausente",0,D6)*0.5</f>
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F6" s="3" t="n">
         <f aca="false">IF(B6="ausente",0,B6)*0.2+IF(C6="ausente",0,C6)*0.5+IF(D6="ausente",0,D6)*0.3</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G6" s="3" t="n">
         <f aca="false">MAX(E6:F6)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H6" s="4" t="str">
         <f aca="false">IF(G6&lt;4,"REP.",IF(G6&lt;5.9,"VS","APR."))</f>
@@ -666,11 +676,11 @@
       </c>
       <c r="J6" s="3" t="n">
         <f aca="false">IF(OR(G6&lt;4,G6&gt;5.9),G6,IF(I6&gt;6,6,(I6+G6)/2))</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L6" s="1" t="n">
         <f aca="false">ROUND((LARGE(M6:O6,1)+LARGE(M6:O6,2))/2,1)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M6" s="3" t="n">
         <f aca="false">IF(B6="ausente",0,B6)</f>
@@ -678,7 +688,7 @@
       </c>
       <c r="N6" s="3" t="n">
         <f aca="false">IF(C6="ausente",0,C6)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O6" s="3" t="n">
         <f aca="false">IF(D6="ausente",0,D6)</f>
@@ -692,31 +702,33 @@
       <c r="B7" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="n">
+        <v>9.9</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="n">
         <f aca="false">IF(B7="ausente",0,B7)*0.2+IF(C7="ausente",0,C7)*0.3+IF(D7="ausente",0,D7)*0.5</f>
-        <v>2</v>
+        <v>4.97</v>
       </c>
       <c r="F7" s="3" t="n">
         <f aca="false">IF(B7="ausente",0,B7)*0.2+IF(C7="ausente",0,C7)*0.5+IF(D7="ausente",0,D7)*0.3</f>
-        <v>2</v>
+        <v>6.95</v>
       </c>
       <c r="G7" s="3" t="n">
         <f aca="false">MAX(E7:F7)</f>
-        <v>2</v>
+        <v>6.95</v>
       </c>
       <c r="H7" s="4" t="str">
         <f aca="false">IF(G7&lt;4,"REP.",IF(G7&lt;5.9,"VS","APR."))</f>
-        <v>REP.</v>
+        <v>APR.</v>
       </c>
       <c r="J7" s="3" t="n">
         <f aca="false">IF(OR(G7&lt;4,G7&gt;5.9),G7,IF(I7&gt;6,6,(I7+G7)/2))</f>
-        <v>2</v>
+        <v>6.95</v>
       </c>
       <c r="L7" s="1" t="n">
         <f aca="false">ROUND((LARGE(M7:O7,1)+LARGE(M7:O7,2))/2,1)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M7" s="3" t="n">
         <f aca="false">IF(B7="ausente",0,B7)</f>
@@ -724,7 +736,7 @@
       </c>
       <c r="N7" s="3" t="n">
         <f aca="false">IF(C7="ausente",0,C7)</f>
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="O7" s="3" t="n">
         <f aca="false">IF(D7="ausente",0,D7)</f>
@@ -738,19 +750,21 @@
       <c r="B8" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="n">
+        <v>0.5</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="n">
         <f aca="false">IF(B8="ausente",0,B8)*0.2+IF(C8="ausente",0,C8)*0.3+IF(D8="ausente",0,D8)*0.5</f>
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="F8" s="3" t="n">
         <f aca="false">IF(B8="ausente",0,B8)*0.2+IF(C8="ausente",0,C8)*0.5+IF(D8="ausente",0,D8)*0.3</f>
-        <v>0.18</v>
+        <v>0.43</v>
       </c>
       <c r="G8" s="3" t="n">
         <f aca="false">MAX(E8:F8)</f>
-        <v>0.18</v>
+        <v>0.43</v>
       </c>
       <c r="H8" s="4" t="str">
         <f aca="false">IF(G8&lt;4,"REP.",IF(G8&lt;5.9,"VS","APR."))</f>
@@ -758,11 +772,11 @@
       </c>
       <c r="J8" s="3" t="n">
         <f aca="false">IF(OR(G8&lt;4,G8&gt;5.9),G8,IF(I8&gt;6,6,(I8+G8)/2))</f>
-        <v>0.18</v>
+        <v>0.43</v>
       </c>
       <c r="L8" s="1" t="n">
         <f aca="false">ROUND((LARGE(M8:O8,1)+LARGE(M8:O8,2))/2,1)</f>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="M8" s="3" t="n">
         <f aca="false">IF(B8="ausente",0,B8)</f>
@@ -770,7 +784,7 @@
       </c>
       <c r="N8" s="3" t="n">
         <f aca="false">IF(C8="ausente",0,C8)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O8" s="3" t="n">
         <f aca="false">IF(D8="ausente",0,D8)</f>
@@ -784,19 +798,21 @@
       <c r="B9" s="3" t="n">
         <v>3.1</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="n">
+        <v>5.4</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="n">
         <f aca="false">IF(B9="ausente",0,B9)*0.2+IF(C9="ausente",0,C9)*0.3+IF(D9="ausente",0,D9)*0.5</f>
-        <v>0.62</v>
+        <v>2.24</v>
       </c>
       <c r="F9" s="3" t="n">
         <f aca="false">IF(B9="ausente",0,B9)*0.2+IF(C9="ausente",0,C9)*0.5+IF(D9="ausente",0,D9)*0.3</f>
-        <v>0.62</v>
+        <v>3.32</v>
       </c>
       <c r="G9" s="3" t="n">
         <f aca="false">MAX(E9:F9)</f>
-        <v>0.62</v>
+        <v>3.32</v>
       </c>
       <c r="H9" s="4" t="str">
         <f aca="false">IF(G9&lt;4,"REP.",IF(G9&lt;5.9,"VS","APR."))</f>
@@ -804,11 +820,11 @@
       </c>
       <c r="J9" s="3" t="n">
         <f aca="false">IF(OR(G9&lt;4,G9&gt;5.9),G9,IF(I9&gt;6,6,(I9+G9)/2))</f>
-        <v>0.62</v>
+        <v>3.32</v>
       </c>
       <c r="L9" s="1" t="n">
         <f aca="false">ROUND((LARGE(M9:O9,1)+LARGE(M9:O9,2))/2,1)</f>
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="M9" s="3" t="n">
         <f aca="false">IF(B9="ausente",0,B9)</f>
@@ -816,7 +832,7 @@
       </c>
       <c r="N9" s="3" t="n">
         <f aca="false">IF(C9="ausente",0,C9)</f>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O9" s="3" t="n">
         <f aca="false">IF(D9="ausente",0,D9)</f>
@@ -830,19 +846,21 @@
       <c r="B10" s="3" t="n">
         <v>4.7</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="n">
+        <v>5.2</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="n">
         <f aca="false">IF(B10="ausente",0,B10)*0.2+IF(C10="ausente",0,C10)*0.3+IF(D10="ausente",0,D10)*0.5</f>
-        <v>0.94</v>
+        <v>2.5</v>
       </c>
       <c r="F10" s="3" t="n">
         <f aca="false">IF(B10="ausente",0,B10)*0.2+IF(C10="ausente",0,C10)*0.5+IF(D10="ausente",0,D10)*0.3</f>
-        <v>0.94</v>
+        <v>3.54</v>
       </c>
       <c r="G10" s="3" t="n">
         <f aca="false">MAX(E10:F10)</f>
-        <v>0.94</v>
+        <v>3.54</v>
       </c>
       <c r="H10" s="4" t="str">
         <f aca="false">IF(G10&lt;4,"REP.",IF(G10&lt;5.9,"VS","APR."))</f>
@@ -850,11 +868,11 @@
       </c>
       <c r="J10" s="3" t="n">
         <f aca="false">IF(OR(G10&lt;4,G10&gt;5.9),G10,IF(I10&gt;6,6,(I10+G10)/2))</f>
-        <v>0.94</v>
+        <v>3.54</v>
       </c>
       <c r="L10" s="1" t="n">
         <f aca="false">ROUND((LARGE(M10:O10,1)+LARGE(M10:O10,2))/2,1)</f>
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="M10" s="3" t="n">
         <f aca="false">IF(B10="ausente",0,B10)</f>
@@ -862,7 +880,7 @@
       </c>
       <c r="N10" s="3" t="n">
         <f aca="false">IF(C10="ausente",0,C10)</f>
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O10" s="3" t="n">
         <f aca="false">IF(D10="ausente",0,D10)</f>
@@ -876,7 +894,9 @@
       <c r="B11" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="n">
         <f aca="false">IF(B11="ausente",0,B11)*0.2+IF(C11="ausente",0,C11)*0.3+IF(D11="ausente",0,D11)*0.5</f>
@@ -922,31 +942,33 @@
       <c r="B12" s="3" t="n">
         <v>5.8</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="n">
         <f aca="false">IF(B12="ausente",0,B12)*0.2+IF(C12="ausente",0,C12)*0.3+IF(D12="ausente",0,D12)*0.5</f>
-        <v>1.16</v>
+        <v>3.56</v>
       </c>
       <c r="F12" s="3" t="n">
         <f aca="false">IF(B12="ausente",0,B12)*0.2+IF(C12="ausente",0,C12)*0.5+IF(D12="ausente",0,D12)*0.3</f>
-        <v>1.16</v>
+        <v>5.16</v>
       </c>
       <c r="G12" s="3" t="n">
         <f aca="false">MAX(E12:F12)</f>
-        <v>1.16</v>
+        <v>5.16</v>
       </c>
       <c r="H12" s="4" t="str">
         <f aca="false">IF(G12&lt;4,"REP.",IF(G12&lt;5.9,"VS","APR."))</f>
-        <v>REP.</v>
+        <v>VS</v>
       </c>
       <c r="J12" s="3" t="n">
         <f aca="false">IF(OR(G12&lt;4,G12&gt;5.9),G12,IF(I12&gt;6,6,(I12+G12)/2))</f>
-        <v>1.16</v>
+        <v>2.58</v>
       </c>
       <c r="L12" s="1" t="n">
         <f aca="false">ROUND((LARGE(M12:O12,1)+LARGE(M12:O12,2))/2,1)</f>
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="M12" s="3" t="n">
         <f aca="false">IF(B12="ausente",0,B12)</f>
@@ -954,7 +976,7 @@
       </c>
       <c r="N12" s="3" t="n">
         <f aca="false">IF(C12="ausente",0,C12)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O12" s="3" t="n">
         <f aca="false">IF(D12="ausente",0,D12)</f>
@@ -968,7 +990,9 @@
       <c r="B13" s="3" t="n">
         <v>2.3</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="n">
         <f aca="false">IF(B13="ausente",0,B13)*0.2+IF(C13="ausente",0,C13)*0.3+IF(D13="ausente",0,D13)*0.5</f>
@@ -1014,7 +1038,9 @@
       <c r="B14" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="n">
         <f aca="false">IF(B14="ausente",0,B14)*0.2+IF(C14="ausente",0,C14)*0.3+IF(D14="ausente",0,D14)*0.5</f>
@@ -1060,31 +1086,33 @@
       <c r="B15" s="3" t="n">
         <v>6.1</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="n">
+        <v>8.7</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="n">
         <f aca="false">IF(B15="ausente",0,B15)*0.2+IF(C15="ausente",0,C15)*0.3+IF(D15="ausente",0,D15)*0.5</f>
-        <v>1.22</v>
+        <v>3.83</v>
       </c>
       <c r="F15" s="3" t="n">
         <f aca="false">IF(B15="ausente",0,B15)*0.2+IF(C15="ausente",0,C15)*0.5+IF(D15="ausente",0,D15)*0.3</f>
-        <v>1.22</v>
+        <v>5.57</v>
       </c>
       <c r="G15" s="3" t="n">
         <f aca="false">MAX(E15:F15)</f>
-        <v>1.22</v>
+        <v>5.57</v>
       </c>
       <c r="H15" s="4" t="str">
         <f aca="false">IF(G15&lt;4,"REP.",IF(G15&lt;5.9,"VS","APR."))</f>
-        <v>REP.</v>
+        <v>VS</v>
       </c>
       <c r="J15" s="3" t="n">
         <f aca="false">IF(OR(G15&lt;4,G15&gt;5.9),G15,IF(I15&gt;6,6,(I15+G15)/2))</f>
-        <v>1.22</v>
+        <v>2.785</v>
       </c>
       <c r="L15" s="1" t="n">
         <f aca="false">ROUND((LARGE(M15:O15,1)+LARGE(M15:O15,2))/2,1)</f>
-        <v>3.1</v>
+        <v>7.4</v>
       </c>
       <c r="M15" s="3" t="n">
         <f aca="false">IF(B15="ausente",0,B15)</f>
@@ -1092,7 +1120,7 @@
       </c>
       <c r="N15" s="3" t="n">
         <f aca="false">IF(C15="ausente",0,C15)</f>
-        <v>0</v>
+        <v>8.7</v>
       </c>
       <c r="O15" s="3" t="n">
         <f aca="false">IF(D15="ausente",0,D15)</f>
@@ -1106,7 +1134,9 @@
       <c r="B16" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="n">
         <f aca="false">IF(B16="ausente",0,B16)*0.2+IF(C16="ausente",0,C16)*0.3+IF(D16="ausente",0,D16)*0.5</f>
@@ -1152,19 +1182,21 @@
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="n">
+        <v>5.3</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="n">
         <f aca="false">IF(B17="ausente",0,B17)*0.2+IF(C17="ausente",0,C17)*0.3+IF(D17="ausente",0,D17)*0.5</f>
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="F17" s="3" t="n">
         <f aca="false">IF(B17="ausente",0,B17)*0.2+IF(C17="ausente",0,C17)*0.5+IF(D17="ausente",0,D17)*0.3</f>
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="G17" s="3" t="n">
         <f aca="false">MAX(E17:F17)</f>
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="H17" s="4" t="str">
         <f aca="false">IF(G17&lt;4,"REP.",IF(G17&lt;5.9,"VS","APR."))</f>
@@ -1172,11 +1204,11 @@
       </c>
       <c r="J17" s="3" t="n">
         <f aca="false">IF(OR(G17&lt;4,G17&gt;5.9),G17,IF(I17&gt;6,6,(I17+G17)/2))</f>
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="L17" s="1" t="n">
         <f aca="false">ROUND((LARGE(M17:O17,1)+LARGE(M17:O17,2))/2,1)</f>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M17" s="3" t="n">
         <f aca="false">IF(B17="ausente",0,B17)</f>
@@ -1184,7 +1216,7 @@
       </c>
       <c r="N17" s="3" t="n">
         <f aca="false">IF(C17="ausente",0,C17)</f>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="O17" s="3" t="n">
         <f aca="false">IF(D17="ausente",0,D17)</f>
@@ -1198,19 +1230,21 @@
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="n">
+        <v>4</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="n">
         <f aca="false">IF(B18="ausente",0,B18)*0.2+IF(C18="ausente",0,C18)*0.3+IF(D18="ausente",0,D18)*0.5</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F18" s="3" t="n">
         <f aca="false">IF(B18="ausente",0,B18)*0.2+IF(C18="ausente",0,C18)*0.5+IF(D18="ausente",0,D18)*0.3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="3" t="n">
         <f aca="false">MAX(E18:F18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="4" t="str">
         <f aca="false">IF(G18&lt;4,"REP.",IF(G18&lt;5.9,"VS","APR."))</f>
@@ -1218,11 +1252,11 @@
       </c>
       <c r="J18" s="3" t="n">
         <f aca="false">IF(OR(G18&lt;4,G18&gt;5.9),G18,IF(I18&gt;6,6,(I18+G18)/2))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="1" t="n">
         <f aca="false">ROUND((LARGE(M18:O18,1)+LARGE(M18:O18,2))/2,1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="3" t="n">
         <f aca="false">IF(B18="ausente",0,B18)</f>
@@ -1230,7 +1264,7 @@
       </c>
       <c r="N18" s="3" t="n">
         <f aca="false">IF(C18="ausente",0,C18)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O18" s="3" t="n">
         <f aca="false">IF(D18="ausente",0,D18)</f>
@@ -1244,19 +1278,21 @@
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="n">
+        <v>1.5</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="n">
         <f aca="false">IF(B19="ausente",0,B19)*0.2+IF(C19="ausente",0,C19)*0.3+IF(D19="ausente",0,D19)*0.5</f>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="F19" s="3" t="n">
         <f aca="false">IF(B19="ausente",0,B19)*0.2+IF(C19="ausente",0,C19)*0.5+IF(D19="ausente",0,D19)*0.3</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G19" s="3" t="n">
         <f aca="false">MAX(E19:F19)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H19" s="4" t="str">
         <f aca="false">IF(G19&lt;4,"REP.",IF(G19&lt;5.9,"VS","APR."))</f>
@@ -1264,11 +1300,11 @@
       </c>
       <c r="J19" s="3" t="n">
         <f aca="false">IF(OR(G19&lt;4,G19&gt;5.9),G19,IF(I19&gt;6,6,(I19+G19)/2))</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L19" s="1" t="n">
         <f aca="false">ROUND((LARGE(M19:O19,1)+LARGE(M19:O19,2))/2,1)</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M19" s="3" t="n">
         <f aca="false">IF(B19="ausente",0,B19)</f>
@@ -1276,7 +1312,7 @@
       </c>
       <c r="N19" s="3" t="n">
         <f aca="false">IF(C19="ausente",0,C19)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O19" s="3" t="n">
         <f aca="false">IF(D19="ausente",0,D19)</f>
@@ -1290,31 +1326,33 @@
       <c r="B20" s="3" t="n">
         <v>7.7</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="n">
         <f aca="false">IF(B20="ausente",0,B20)*0.2+IF(C20="ausente",0,C20)*0.3+IF(D20="ausente",0,D20)*0.5</f>
-        <v>1.54</v>
+        <v>3.94</v>
       </c>
       <c r="F20" s="3" t="n">
         <f aca="false">IF(B20="ausente",0,B20)*0.2+IF(C20="ausente",0,C20)*0.5+IF(D20="ausente",0,D20)*0.3</f>
-        <v>1.54</v>
+        <v>5.54</v>
       </c>
       <c r="G20" s="3" t="n">
         <f aca="false">MAX(E20:F20)</f>
-        <v>1.54</v>
+        <v>5.54</v>
       </c>
       <c r="H20" s="4" t="str">
         <f aca="false">IF(G20&lt;4,"REP.",IF(G20&lt;5.9,"VS","APR."))</f>
-        <v>REP.</v>
+        <v>VS</v>
       </c>
       <c r="J20" s="3" t="n">
         <f aca="false">IF(OR(G20&lt;4,G20&gt;5.9),G20,IF(I20&gt;6,6,(I20+G20)/2))</f>
-        <v>1.54</v>
+        <v>2.77</v>
       </c>
       <c r="L20" s="1" t="n">
         <f aca="false">ROUND((LARGE(M20:O20,1)+LARGE(M20:O20,2))/2,1)</f>
-        <v>3.9</v>
+        <v>7.9</v>
       </c>
       <c r="M20" s="3" t="n">
         <f aca="false">IF(B20="ausente",0,B20)</f>
@@ -1322,7 +1360,7 @@
       </c>
       <c r="N20" s="3" t="n">
         <f aca="false">IF(C20="ausente",0,C20)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O20" s="3" t="n">
         <f aca="false">IF(D20="ausente",0,D20)</f>
@@ -1336,7 +1374,9 @@
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="n">
         <f aca="false">IF(B21="ausente",0,B21)*0.2+IF(C21="ausente",0,C21)*0.3+IF(D21="ausente",0,D21)*0.5</f>
@@ -1382,7 +1422,9 @@
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="n">
         <f aca="false">IF(B22="ausente",0,B22)*0.2+IF(C22="ausente",0,C22)*0.3+IF(D22="ausente",0,D22)*0.5</f>
@@ -1428,7 +1470,9 @@
       <c r="B23" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="n">
         <f aca="false">IF(B23="ausente",0,B23)*0.2+IF(C23="ausente",0,C23)*0.3+IF(D23="ausente",0,D23)*0.5</f>
@@ -1474,19 +1518,21 @@
       <c r="B24" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="n">
+        <v>0.7</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="n">
         <f aca="false">IF(B24="ausente",0,B24)*0.2+IF(C24="ausente",0,C24)*0.3+IF(D24="ausente",0,D24)*0.5</f>
-        <v>0.6</v>
+        <v>0.81</v>
       </c>
       <c r="F24" s="3" t="n">
         <f aca="false">IF(B24="ausente",0,B24)*0.2+IF(C24="ausente",0,C24)*0.5+IF(D24="ausente",0,D24)*0.3</f>
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="G24" s="3" t="n">
         <f aca="false">MAX(E24:F24)</f>
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="H24" s="4" t="str">
         <f aca="false">IF(G24&lt;4,"REP.",IF(G24&lt;5.9,"VS","APR."))</f>
@@ -1494,11 +1540,11 @@
       </c>
       <c r="J24" s="3" t="n">
         <f aca="false">IF(OR(G24&lt;4,G24&gt;5.9),G24,IF(I24&gt;6,6,(I24+G24)/2))</f>
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="L24" s="1" t="n">
         <f aca="false">ROUND((LARGE(M24:O24,1)+LARGE(M24:O24,2))/2,1)</f>
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="M24" s="3" t="n">
         <f aca="false">IF(B24="ausente",0,B24)</f>
@@ -1506,7 +1552,7 @@
       </c>
       <c r="N24" s="3" t="n">
         <f aca="false">IF(C24="ausente",0,C24)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O24" s="3" t="n">
         <f aca="false">IF(D24="ausente",0,D24)</f>
@@ -1520,19 +1566,21 @@
       <c r="B25" s="3" t="n">
         <v>1.8</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="n">
+        <v>5.1</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="n">
         <f aca="false">IF(B25="ausente",0,B25)*0.2+IF(C25="ausente",0,C25)*0.3+IF(D25="ausente",0,D25)*0.5</f>
-        <v>0.36</v>
+        <v>1.89</v>
       </c>
       <c r="F25" s="3" t="n">
         <f aca="false">IF(B25="ausente",0,B25)*0.2+IF(C25="ausente",0,C25)*0.5+IF(D25="ausente",0,D25)*0.3</f>
-        <v>0.36</v>
+        <v>2.91</v>
       </c>
       <c r="G25" s="3" t="n">
         <f aca="false">MAX(E25:F25)</f>
-        <v>0.36</v>
+        <v>2.91</v>
       </c>
       <c r="H25" s="4" t="str">
         <f aca="false">IF(G25&lt;4,"REP.",IF(G25&lt;5.9,"VS","APR."))</f>
@@ -1540,11 +1588,11 @@
       </c>
       <c r="J25" s="3" t="n">
         <f aca="false">IF(OR(G25&lt;4,G25&gt;5.9),G25,IF(I25&gt;6,6,(I25+G25)/2))</f>
-        <v>0.36</v>
+        <v>2.91</v>
       </c>
       <c r="L25" s="1" t="n">
         <f aca="false">ROUND((LARGE(M25:O25,1)+LARGE(M25:O25,2))/2,1)</f>
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="M25" s="3" t="n">
         <f aca="false">IF(B25="ausente",0,B25)</f>
@@ -1552,7 +1600,7 @@
       </c>
       <c r="N25" s="3" t="n">
         <f aca="false">IF(C25="ausente",0,C25)</f>
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O25" s="3" t="n">
         <f aca="false">IF(D25="ausente",0,D25)</f>
@@ -1566,31 +1614,33 @@
       <c r="B26" s="3" t="n">
         <v>1.9</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="n">
+        <v>7.7</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="n">
         <f aca="false">IF(B26="ausente",0,B26)*0.2+IF(C26="ausente",0,C26)*0.3+IF(D26="ausente",0,D26)*0.5</f>
-        <v>0.38</v>
+        <v>2.69</v>
       </c>
       <c r="F26" s="3" t="n">
         <f aca="false">IF(B26="ausente",0,B26)*0.2+IF(C26="ausente",0,C26)*0.5+IF(D26="ausente",0,D26)*0.3</f>
-        <v>0.38</v>
+        <v>4.23</v>
       </c>
       <c r="G26" s="3" t="n">
         <f aca="false">MAX(E26:F26)</f>
-        <v>0.38</v>
+        <v>4.23</v>
       </c>
       <c r="H26" s="4" t="str">
         <f aca="false">IF(G26&lt;4,"REP.",IF(G26&lt;5.9,"VS","APR."))</f>
-        <v>REP.</v>
+        <v>VS</v>
       </c>
       <c r="J26" s="3" t="n">
         <f aca="false">IF(OR(G26&lt;4,G26&gt;5.9),G26,IF(I26&gt;6,6,(I26+G26)/2))</f>
-        <v>0.38</v>
+        <v>2.115</v>
       </c>
       <c r="L26" s="1" t="n">
         <f aca="false">ROUND((LARGE(M26:O26,1)+LARGE(M26:O26,2))/2,1)</f>
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="M26" s="3" t="n">
         <f aca="false">IF(B26="ausente",0,B26)</f>
@@ -1598,7 +1648,7 @@
       </c>
       <c r="N26" s="3" t="n">
         <f aca="false">IF(C26="ausente",0,C26)</f>
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="O26" s="3" t="n">
         <f aca="false">IF(D26="ausente",0,D26)</f>
@@ -1612,31 +1662,33 @@
       <c r="B27" s="3" t="n">
         <v>9.3</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="n">
+        <v>7.8</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="n">
         <f aca="false">IF(B27="ausente",0,B27)*0.2+IF(C27="ausente",0,C27)*0.3+IF(D27="ausente",0,D27)*0.5</f>
-        <v>1.86</v>
+        <v>4.2</v>
       </c>
       <c r="F27" s="3" t="n">
         <f aca="false">IF(B27="ausente",0,B27)*0.2+IF(C27="ausente",0,C27)*0.5+IF(D27="ausente",0,D27)*0.3</f>
-        <v>1.86</v>
+        <v>5.76</v>
       </c>
       <c r="G27" s="3" t="n">
         <f aca="false">MAX(E27:F27)</f>
-        <v>1.86</v>
+        <v>5.76</v>
       </c>
       <c r="H27" s="4" t="str">
         <f aca="false">IF(G27&lt;4,"REP.",IF(G27&lt;5.9,"VS","APR."))</f>
-        <v>REP.</v>
+        <v>VS</v>
       </c>
       <c r="J27" s="3" t="n">
         <f aca="false">IF(OR(G27&lt;4,G27&gt;5.9),G27,IF(I27&gt;6,6,(I27+G27)/2))</f>
-        <v>1.86</v>
+        <v>2.88</v>
       </c>
       <c r="L27" s="1" t="n">
         <f aca="false">ROUND((LARGE(M27:O27,1)+LARGE(M27:O27,2))/2,1)</f>
-        <v>4.7</v>
+        <v>8.6</v>
       </c>
       <c r="M27" s="3" t="n">
         <f aca="false">IF(B27="ausente",0,B27)</f>
@@ -1644,7 +1696,7 @@
       </c>
       <c r="N27" s="3" t="n">
         <f aca="false">IF(C27="ausente",0,C27)</f>
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="O27" s="3" t="n">
         <f aca="false">IF(D27="ausente",0,D27)</f>
@@ -1658,7 +1710,9 @@
       <c r="B28" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="n">
         <f aca="false">IF(B28="ausente",0,B28)*0.2+IF(C28="ausente",0,C28)*0.3+IF(D28="ausente",0,D28)*0.5</f>
@@ -1704,7 +1758,9 @@
       <c r="B29" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="n">
         <f aca="false">IF(B29="ausente",0,B29)*0.2+IF(C29="ausente",0,C29)*0.3+IF(D29="ausente",0,D29)*0.5</f>
@@ -1750,7 +1806,9 @@
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="n">
         <f aca="false">IF(B30="ausente",0,B30)*0.2+IF(C30="ausente",0,C30)*0.3+IF(D30="ausente",0,D30)*0.5</f>
@@ -1796,19 +1854,21 @@
       <c r="B31" s="3" t="n">
         <v>5.8</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="n">
+        <v>3.5</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="n">
         <f aca="false">IF(B31="ausente",0,B31)*0.2+IF(C31="ausente",0,C31)*0.3+IF(D31="ausente",0,D31)*0.5</f>
-        <v>1.16</v>
+        <v>2.21</v>
       </c>
       <c r="F31" s="3" t="n">
         <f aca="false">IF(B31="ausente",0,B31)*0.2+IF(C31="ausente",0,C31)*0.5+IF(D31="ausente",0,D31)*0.3</f>
-        <v>1.16</v>
+        <v>2.91</v>
       </c>
       <c r="G31" s="3" t="n">
         <f aca="false">MAX(E31:F31)</f>
-        <v>1.16</v>
+        <v>2.91</v>
       </c>
       <c r="H31" s="4" t="str">
         <f aca="false">IF(G31&lt;4,"REP.",IF(G31&lt;5.9,"VS","APR."))</f>
@@ -1816,11 +1876,11 @@
       </c>
       <c r="J31" s="3" t="n">
         <f aca="false">IF(OR(G31&lt;4,G31&gt;5.9),G31,IF(I31&gt;6,6,(I31+G31)/2))</f>
-        <v>1.16</v>
+        <v>2.91</v>
       </c>
       <c r="L31" s="1" t="n">
         <f aca="false">ROUND((LARGE(M31:O31,1)+LARGE(M31:O31,2))/2,1)</f>
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="M31" s="3" t="n">
         <f aca="false">IF(B31="ausente",0,B31)</f>
@@ -1828,7 +1888,7 @@
       </c>
       <c r="N31" s="3" t="n">
         <f aca="false">IF(C31="ausente",0,C31)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O31" s="3" t="n">
         <f aca="false">IF(D31="ausente",0,D31)</f>
@@ -1842,19 +1902,21 @@
       <c r="B32" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="n">
         <f aca="false">IF(B32="ausente",0,B32)*0.2+IF(C32="ausente",0,C32)*0.3+IF(D32="ausente",0,D32)*0.5</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3" t="n">
         <f aca="false">IF(B32="ausente",0,B32)*0.2+IF(C32="ausente",0,C32)*0.5+IF(D32="ausente",0,D32)*0.3</f>
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="G32" s="3" t="n">
         <f aca="false">MAX(E32:F32)</f>
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H32" s="4" t="str">
         <f aca="false">IF(G32&lt;4,"REP.",IF(G32&lt;5.9,"VS","APR."))</f>
@@ -1862,11 +1924,11 @@
       </c>
       <c r="J32" s="3" t="n">
         <f aca="false">IF(OR(G32&lt;4,G32&gt;5.9),G32,IF(I32&gt;6,6,(I32+G32)/2))</f>
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="L32" s="1" t="n">
         <f aca="false">ROUND((LARGE(M32:O32,1)+LARGE(M32:O32,2))/2,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" s="3" t="n">
         <f aca="false">IF(B32="ausente",0,B32)</f>
@@ -1874,7 +1936,7 @@
       </c>
       <c r="N32" s="3" t="n">
         <f aca="false">IF(C32="ausente",0,C32)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O32" s="3" t="n">
         <f aca="false">IF(D32="ausente",0,D32)</f>
@@ -1888,19 +1950,21 @@
       <c r="B33" s="3" t="n">
         <v>1.6</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="n">
+        <v>2.2</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="n">
         <f aca="false">IF(B33="ausente",0,B33)*0.2+IF(C33="ausente",0,C33)*0.3+IF(D33="ausente",0,D33)*0.5</f>
-        <v>0.32</v>
+        <v>0.98</v>
       </c>
       <c r="F33" s="3" t="n">
         <f aca="false">IF(B33="ausente",0,B33)*0.2+IF(C33="ausente",0,C33)*0.5+IF(D33="ausente",0,D33)*0.3</f>
-        <v>0.32</v>
+        <v>1.42</v>
       </c>
       <c r="G33" s="3" t="n">
         <f aca="false">MAX(E33:F33)</f>
-        <v>0.32</v>
+        <v>1.42</v>
       </c>
       <c r="H33" s="4" t="str">
         <f aca="false">IF(G33&lt;4,"REP.",IF(G33&lt;5.9,"VS","APR."))</f>
@@ -1908,11 +1972,11 @@
       </c>
       <c r="J33" s="3" t="n">
         <f aca="false">IF(OR(G33&lt;4,G33&gt;5.9),G33,IF(I33&gt;6,6,(I33+G33)/2))</f>
-        <v>0.32</v>
+        <v>1.42</v>
       </c>
       <c r="L33" s="1" t="n">
         <f aca="false">ROUND((LARGE(M33:O33,1)+LARGE(M33:O33,2))/2,1)</f>
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="M33" s="3" t="n">
         <f aca="false">IF(B33="ausente",0,B33)</f>
@@ -1920,7 +1984,7 @@
       </c>
       <c r="N33" s="3" t="n">
         <f aca="false">IF(C33="ausente",0,C33)</f>
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O33" s="3" t="n">
         <f aca="false">IF(D33="ausente",0,D33)</f>
@@ -1934,7 +1998,9 @@
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="n">
         <f aca="false">IF(B34="ausente",0,B34)*0.2+IF(C34="ausente",0,C34)*0.3+IF(D34="ausente",0,D34)*0.5</f>
@@ -1980,17 +2046,20 @@
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C35" s="1" t="n">
+        <v>1.8</v>
+      </c>
       <c r="E35" s="3" t="n">
         <f aca="false">IF(B35="ausente",0,B35)*0.2+IF(C35="ausente",0,C35)*0.3+IF(D35="ausente",0,D35)*0.5</f>
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="F35" s="3" t="n">
         <f aca="false">IF(B35="ausente",0,B35)*0.2+IF(C35="ausente",0,C35)*0.5+IF(D35="ausente",0,D35)*0.3</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G35" s="3" t="n">
         <f aca="false">MAX(E35:F35)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H35" s="4" t="str">
         <f aca="false">IF(G35&lt;4,"REP.",IF(G35&lt;5.9,"VS","APR."))</f>
@@ -1998,11 +2067,11 @@
       </c>
       <c r="J35" s="3" t="n">
         <f aca="false">IF(OR(G35&lt;4,G35&gt;5.9),G35,IF(I35&gt;6,6,(I35+G35)/2))</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L35" s="1" t="n">
         <f aca="false">ROUND((LARGE(M35:O35,1)+LARGE(M35:O35,2))/2,1)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M35" s="3" t="n">
         <f aca="false">IF(B35="ausente",0,B35)</f>
@@ -2010,7 +2079,7 @@
       </c>
       <c r="N35" s="3" t="n">
         <f aca="false">IF(C35="ausente",0,C35)</f>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O35" s="3" t="n">
         <f aca="false">IF(D35="ausente",0,D35)</f>
@@ -2024,17 +2093,20 @@
       <c r="B36" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="C36" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="E36" s="3" t="n">
         <f aca="false">IF(B36="ausente",0,B36)*0.2+IF(C36="ausente",0,C36)*0.3+IF(D36="ausente",0,D36)*0.5</f>
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="F36" s="3" t="n">
         <f aca="false">IF(B36="ausente",0,B36)*0.2+IF(C36="ausente",0,C36)*0.5+IF(D36="ausente",0,D36)*0.3</f>
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="G36" s="3" t="n">
         <f aca="false">MAX(E36:F36)</f>
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H36" s="4" t="str">
         <f aca="false">IF(G36&lt;4,"REP.",IF(G36&lt;5.9,"VS","APR."))</f>
@@ -2042,11 +2114,11 @@
       </c>
       <c r="J36" s="3" t="n">
         <f aca="false">IF(OR(G36&lt;4,G36&gt;5.9),G36,IF(I36&gt;6,6,(I36+G36)/2))</f>
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="L36" s="1" t="n">
         <f aca="false">ROUND((LARGE(M36:O36,1)+LARGE(M36:O36,2))/2,1)</f>
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="M36" s="3" t="n">
         <f aca="false">IF(B36="ausente",0,B36)</f>
@@ -2054,7 +2126,7 @@
       </c>
       <c r="N36" s="3" t="n">
         <f aca="false">IF(C36="ausente",0,C36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36" s="3" t="n">
         <f aca="false">IF(D36="ausente",0,D36)</f>
@@ -2068,17 +2140,20 @@
       <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C37" s="1" t="n">
+        <v>2.2</v>
+      </c>
       <c r="E37" s="3" t="n">
         <f aca="false">IF(B37="ausente",0,B37)*0.2+IF(C37="ausente",0,C37)*0.3+IF(D37="ausente",0,D37)*0.5</f>
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="F37" s="3" t="n">
         <f aca="false">IF(B37="ausente",0,B37)*0.2+IF(C37="ausente",0,C37)*0.5+IF(D37="ausente",0,D37)*0.3</f>
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="G37" s="3" t="n">
         <f aca="false">MAX(E37:F37)</f>
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H37" s="4" t="str">
         <f aca="false">IF(G37&lt;4,"REP.",IF(G37&lt;5.9,"VS","APR."))</f>
@@ -2086,11 +2161,11 @@
       </c>
       <c r="J37" s="3" t="n">
         <f aca="false">IF(OR(G37&lt;4,G37&gt;5.9),G37,IF(I37&gt;6,6,(I37+G37)/2))</f>
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="L37" s="1" t="n">
         <f aca="false">ROUND((LARGE(M37:O37,1)+LARGE(M37:O37,2))/2,1)</f>
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="M37" s="3" t="n">
         <f aca="false">IF(B37="ausente",0,B37)</f>
@@ -2098,7 +2173,7 @@
       </c>
       <c r="N37" s="3" t="n">
         <f aca="false">IF(C37="ausente",0,C37)</f>
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O37" s="3" t="n">
         <f aca="false">IF(D37="ausente",0,D37)</f>
@@ -2112,17 +2187,20 @@
       <c r="B38" s="1" t="n">
         <v>2.5</v>
       </c>
+      <c r="C38" s="1" t="n">
+        <v>2.2</v>
+      </c>
       <c r="E38" s="3" t="n">
         <f aca="false">IF(B38="ausente",0,B38)*0.2+IF(C38="ausente",0,C38)*0.3+IF(D38="ausente",0,D38)*0.5</f>
-        <v>0.5</v>
+        <v>1.16</v>
       </c>
       <c r="F38" s="3" t="n">
         <f aca="false">IF(B38="ausente",0,B38)*0.2+IF(C38="ausente",0,C38)*0.5+IF(D38="ausente",0,D38)*0.3</f>
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="G38" s="3" t="n">
         <f aca="false">MAX(E38:F38)</f>
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H38" s="4" t="str">
         <f aca="false">IF(G38&lt;4,"REP.",IF(G38&lt;5.9,"VS","APR."))</f>
@@ -2130,11 +2208,11 @@
       </c>
       <c r="J38" s="3" t="n">
         <f aca="false">IF(OR(G38&lt;4,G38&gt;5.9),G38,IF(I38&gt;6,6,(I38+G38)/2))</f>
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="L38" s="1" t="n">
         <f aca="false">ROUND((LARGE(M38:O38,1)+LARGE(M38:O38,2))/2,1)</f>
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="M38" s="3" t="n">
         <f aca="false">IF(B38="ausente",0,B38)</f>
@@ -2142,7 +2220,7 @@
       </c>
       <c r="N38" s="3" t="n">
         <f aca="false">IF(C38="ausente",0,C38)</f>
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O38" s="3" t="n">
         <f aca="false">IF(D38="ausente",0,D38)</f>
@@ -2156,17 +2234,20 @@
       <c r="B39" s="1" t="n">
         <v>2.1</v>
       </c>
+      <c r="C39" s="1" t="n">
+        <v>5.8</v>
+      </c>
       <c r="E39" s="3" t="n">
         <f aca="false">IF(B39="ausente",0,B39)*0.2+IF(C39="ausente",0,C39)*0.3+IF(D39="ausente",0,D39)*0.5</f>
-        <v>0.42</v>
+        <v>2.16</v>
       </c>
       <c r="F39" s="3" t="n">
         <f aca="false">IF(B39="ausente",0,B39)*0.2+IF(C39="ausente",0,C39)*0.5+IF(D39="ausente",0,D39)*0.3</f>
-        <v>0.42</v>
+        <v>3.32</v>
       </c>
       <c r="G39" s="3" t="n">
         <f aca="false">MAX(E39:F39)</f>
-        <v>0.42</v>
+        <v>3.32</v>
       </c>
       <c r="H39" s="4" t="str">
         <f aca="false">IF(G39&lt;4,"REP.",IF(G39&lt;5.9,"VS","APR."))</f>
@@ -2174,11 +2255,11 @@
       </c>
       <c r="J39" s="3" t="n">
         <f aca="false">IF(OR(G39&lt;4,G39&gt;5.9),G39,IF(I39&gt;6,6,(I39+G39)/2))</f>
-        <v>0.42</v>
+        <v>3.32</v>
       </c>
       <c r="L39" s="1" t="n">
         <f aca="false">ROUND((LARGE(M39:O39,1)+LARGE(M39:O39,2))/2,1)</f>
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="M39" s="3" t="n">
         <f aca="false">IF(B39="ausente",0,B39)</f>
@@ -2186,7 +2267,7 @@
       </c>
       <c r="N39" s="3" t="n">
         <f aca="false">IF(C39="ausente",0,C39)</f>
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="O39" s="3" t="n">
         <f aca="false">IF(D39="ausente",0,D39)</f>
@@ -2200,29 +2281,32 @@
       <c r="B40" s="1" t="n">
         <v>5.9</v>
       </c>
+      <c r="C40" s="1" t="n">
+        <v>7.5</v>
+      </c>
       <c r="E40" s="3" t="n">
         <f aca="false">IF(B40="ausente",0,B40)*0.2+IF(C40="ausente",0,C40)*0.3+IF(D40="ausente",0,D40)*0.5</f>
-        <v>1.18</v>
+        <v>3.43</v>
       </c>
       <c r="F40" s="3" t="n">
         <f aca="false">IF(B40="ausente",0,B40)*0.2+IF(C40="ausente",0,C40)*0.5+IF(D40="ausente",0,D40)*0.3</f>
-        <v>1.18</v>
+        <v>4.93</v>
       </c>
       <c r="G40" s="3" t="n">
         <f aca="false">MAX(E40:F40)</f>
-        <v>1.18</v>
+        <v>4.93</v>
       </c>
       <c r="H40" s="4" t="str">
         <f aca="false">IF(G40&lt;4,"REP.",IF(G40&lt;5.9,"VS","APR."))</f>
-        <v>REP.</v>
+        <v>VS</v>
       </c>
       <c r="J40" s="3" t="n">
         <f aca="false">IF(OR(G40&lt;4,G40&gt;5.9),G40,IF(I40&gt;6,6,(I40+G40)/2))</f>
-        <v>1.18</v>
+        <v>2.465</v>
       </c>
       <c r="L40" s="1" t="n">
         <f aca="false">ROUND((LARGE(M40:O40,1)+LARGE(M40:O40,2))/2,1)</f>
-        <v>3</v>
+        <v>6.7</v>
       </c>
       <c r="M40" s="3" t="n">
         <f aca="false">IF(B40="ausente",0,B40)</f>
@@ -2230,7 +2314,7 @@
       </c>
       <c r="N40" s="3" t="n">
         <f aca="false">IF(C40="ausente",0,C40)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="O40" s="3" t="n">
         <f aca="false">IF(D40="ausente",0,D40)</f>
